--- a/Users Loads10.xlsx
+++ b/Users Loads10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9.533195570312248</v>
+        <v>0.5421158821610158</v>
       </c>
       <c r="C2" t="n">
-        <v>3.36184273547751</v>
+        <v>4.256126898435976</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5580172508736327</v>
+        <v>0.6401828488849637</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.04808721627118</v>
+        <v>0.6561547688137029</v>
       </c>
       <c r="C3" t="n">
-        <v>3.834164453475809</v>
+        <v>4.920921448278046</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1378301272106703</v>
+        <v>0.4255491748722718</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.62482251439692</v>
+        <v>0.7247662411802125</v>
       </c>
       <c r="C4" t="n">
-        <v>4.331544710453276</v>
+        <v>2.676352445779575</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3090989233015632</v>
+        <v>0.4317966431848256</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.95362986747875</v>
+        <v>0.7936827625910243</v>
       </c>
       <c r="C5" t="n">
-        <v>1.54275136493629</v>
+        <v>6.7326285426207</v>
       </c>
       <c r="D5" t="n">
-        <v>0.293849171830448</v>
+        <v>0.5107106616295859</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.41950540612345</v>
+        <v>0.9912139357407189</v>
       </c>
       <c r="C6" t="n">
-        <v>1.911559401572303</v>
+        <v>6.029267247896365</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3363839839262385</v>
+        <v>0.5820250805582721</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.01575761616835</v>
+        <v>2.759659083581957</v>
       </c>
       <c r="C7" t="n">
-        <v>3.38373150518407</v>
+        <v>4.434925561908881</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2055743875692901</v>
+        <v>0.4047891376539333</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20.95886077220474</v>
+        <v>3.27852172264648</v>
       </c>
       <c r="C8" t="n">
-        <v>2.050746072040653</v>
+        <v>3.931043832529031</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3462636891595344</v>
+        <v>0.2830027274621393</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>22.49348721926997</v>
+        <v>5.107689233266775</v>
       </c>
       <c r="C9" t="n">
-        <v>6.837007144970843</v>
+        <v>3.883145114278353</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5112460526606586</v>
+        <v>0.2054402350462822</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>25.21619997757303</v>
+        <v>5.319963928029854</v>
       </c>
       <c r="C10" t="n">
-        <v>4.533562452652907</v>
+        <v>4.723122928657951</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4673497647566497</v>
+        <v>0.1872705165930199</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>29.63387065638081</v>
+        <v>5.909263198358842</v>
       </c>
       <c r="C11" t="n">
-        <v>5.350179381351232</v>
+        <v>3.403564907422792</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7915844904949266</v>
+        <v>0.349623649973569</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>30.09188671654654</v>
+        <v>6.16923877458852</v>
       </c>
       <c r="C12" t="n">
-        <v>2.600022550025908</v>
+        <v>8.81873905846671</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4481909673446949</v>
+        <v>0.6985238438377261</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>32.82511843649364</v>
+        <v>7.844550406585625</v>
       </c>
       <c r="C13" t="n">
-        <v>7.513320427921377</v>
+        <v>6.84943341965591</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6369446975398989</v>
+        <v>0.3820240753786903</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>35.41598391388484</v>
+        <v>8.336081370385131</v>
       </c>
       <c r="C14" t="n">
-        <v>2.810862626367957</v>
+        <v>4.059525727805287</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4905620480718637</v>
+        <v>0.3324757544003392</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>44.76153423336895</v>
+        <v>9.145422561316359</v>
       </c>
       <c r="C15" t="n">
-        <v>2.742909175120103</v>
+        <v>3.473806858958553</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4027605885283304</v>
+        <v>0.2306262939639618</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>50.782763692764</v>
+        <v>9.446958496812702</v>
       </c>
       <c r="C16" t="n">
-        <v>4.157047269534503</v>
+        <v>3.446030081193044</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2450029506373642</v>
+        <v>0.4027299490434375</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>58.16069823617671</v>
+        <v>10.05997643506514</v>
       </c>
       <c r="C17" t="n">
-        <v>2.564238535177608</v>
+        <v>1.777813276466015</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2742167413998962</v>
+        <v>0.3271713340364062</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>59.84001531447844</v>
+        <v>10.47250782885357</v>
       </c>
       <c r="C18" t="n">
-        <v>7.283266239320983</v>
+        <v>2.460306386146648</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6713460587875894</v>
+        <v>0.2437500301138185</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>63.06331579497527</v>
+        <v>10.93548748356842</v>
       </c>
       <c r="C19" t="n">
-        <v>1.840912071909218</v>
+        <v>2.69712772549978</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1699390205798922</v>
+        <v>0.1076783666108116</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>65.069418536646</v>
+        <v>11.18227843462727</v>
       </c>
       <c r="C20" t="n">
-        <v>6.137568059873542</v>
+        <v>4.371827573375713</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5775515198725198</v>
+        <v>0.6066982845394414</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>66.248440449127</v>
+        <v>11.40930535854392</v>
       </c>
       <c r="C21" t="n">
-        <v>6.222837300677954</v>
+        <v>7.306190831544515</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6825812041716004</v>
+        <v>0.7674516097165542</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>66.3062622439236</v>
+        <v>11.62539753182652</v>
       </c>
       <c r="C22" t="n">
-        <v>2.452796375215232</v>
+        <v>6.505297951312386</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2374681026992111</v>
+        <v>0.6809206405027027</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>66.61796164844957</v>
+        <v>11.74037742127476</v>
       </c>
       <c r="C23" t="n">
-        <v>4.501184020273167</v>
+        <v>4.983907507235223</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6473738400174185</v>
+        <v>0.4961837704485398</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>69.40312903647427</v>
+        <v>11.74384186108333</v>
       </c>
       <c r="C24" t="n">
-        <v>3.206500173788597</v>
+        <v>2.721760741705951</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2350512535996845</v>
+        <v>0.2381777689103671</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>70.31142117348671</v>
+        <v>12.21983790306851</v>
       </c>
       <c r="C25" t="n">
-        <v>1.69588092504859</v>
+        <v>4.084504788390058</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3199110215965215</v>
+        <v>0.7923534306106239</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>73.58607784375988</v>
+        <v>12.31279165402599</v>
       </c>
       <c r="C26" t="n">
-        <v>3.718243402066296</v>
+        <v>7.664974529739995</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3959172285586042</v>
+        <v>0.4951410638648877</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>81.99603324119727</v>
+        <v>12.6840162517938</v>
       </c>
       <c r="C27" t="n">
-        <v>4.854445029024514</v>
+        <v>4.748927573091652</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7194409747054281</v>
+        <v>0.2564996126540278</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>82.68702857979572</v>
+        <v>12.82599138789245</v>
       </c>
       <c r="C28" t="n">
-        <v>2.60956267796093</v>
+        <v>5.063292421482217</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2545992685014493</v>
+        <v>0.3799321617807697</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>83.84798443241685</v>
+        <v>13.16970908632319</v>
       </c>
       <c r="C29" t="n">
-        <v>4.213094926626965</v>
+        <v>4.857215918982798</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1750959758976748</v>
+        <v>0.4348205275692206</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>88.00332809626417</v>
+        <v>13.26080109407556</v>
       </c>
       <c r="C30" t="n">
-        <v>4.058465992034675</v>
+        <v>3.773155154396409</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3680692228405086</v>
+        <v>0.2338956382080037</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>88.61007652852442</v>
+        <v>13.42528589935645</v>
       </c>
       <c r="C31" t="n">
-        <v>8.461718507106481</v>
+        <v>7.824553083435173</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4561991173443729</v>
+        <v>0.5433550342900716</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>89.27362883098415</v>
+        <v>13.48104543742432</v>
       </c>
       <c r="C32" t="n">
-        <v>7.397348347857395</v>
+        <v>8.217560777204946</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7543595866106901</v>
+        <v>0.4554416944536133</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>89.49181620199506</v>
+        <v>13.54127192278392</v>
       </c>
       <c r="C33" t="n">
-        <v>5.796534346020784</v>
+        <v>4.210109007724442</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8058362435834562</v>
+        <v>0.3017392614672934</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>93.05308613563398</v>
+        <v>14.96013075539508</v>
       </c>
       <c r="C34" t="n">
-        <v>6.530074554365255</v>
+        <v>5.692669164745102</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5840170770129814</v>
+        <v>0.6066735983042708</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>93.61350799975239</v>
+        <v>15.06846370496546</v>
       </c>
       <c r="C35" t="n">
-        <v>2.170313193979911</v>
+        <v>7.096811805041463</v>
       </c>
       <c r="D35" t="n">
-        <v>0.408399393198726</v>
+        <v>0.7505524436078079</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>95.4196942690633</v>
+        <v>15.28922991317042</v>
       </c>
       <c r="C36" t="n">
-        <v>4.306655776920149</v>
+        <v>6.21059856651655</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5181469379688293</v>
+        <v>0.6336364339187998</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>97.2362547468814</v>
+        <v>15.65061689382823</v>
       </c>
       <c r="C37" t="n">
-        <v>3.036407605855652</v>
+        <v>8.410234270119243</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5566429266109622</v>
+        <v>0.572180277344406</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,2085 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>98.4976263660047</v>
+        <v>16.68490598974885</v>
       </c>
       <c r="C38" t="n">
-        <v>4.773994206770554</v>
+        <v>6.508950778374494</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2464215408014906</v>
+        <v>0.4746258641223644</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>16.90837282155707</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3.596652278564903</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.6851944339576359</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>17.22765132049345</v>
+      </c>
+      <c r="C40" t="n">
+        <v>8.387374120932467</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.4283671566538814</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>19.67244928936897</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2.846105212818623</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.2784340443037568</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>20.09239442938473</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3.598452334927893</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.2407142177731323</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>20.8279720674512</v>
+      </c>
+      <c r="C43" t="n">
+        <v>11.24081504031009</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.5739827003274661</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>20.86924223818257</v>
+      </c>
+      <c r="C44" t="n">
+        <v>6.248571601389242</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.2346651265323563</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>21.79161901570264</v>
+      </c>
+      <c r="C45" t="n">
+        <v>9.158531803188673</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.4432751919260009</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>22.09463489710684</v>
+      </c>
+      <c r="C46" t="n">
+        <v>5.400049123229917</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.5088912593302435</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>22.88318720485291</v>
+      </c>
+      <c r="C47" t="n">
+        <v>8.560763704099982</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.6447480045128294</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>23.07834246502286</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2.560736479912048</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.5116667257969792</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>23.30382219075982</v>
+      </c>
+      <c r="C49" t="n">
+        <v>6.01919057571685</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.3047322850057341</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>23.31353597094618</v>
+      </c>
+      <c r="C50" t="n">
+        <v>5.116140002258485</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.4311072605467961</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>23.56581552272433</v>
+      </c>
+      <c r="C51" t="n">
+        <v>8.886274923506612</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.5705710029909981</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>23.67139986487716</v>
+      </c>
+      <c r="C52" t="n">
+        <v>5.437865594416522</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.6607884587958225</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>24.07910130990735</v>
+      </c>
+      <c r="C53" t="n">
+        <v>5.093852936260583</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.5614447356233544</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>24.70660327334964</v>
+      </c>
+      <c r="C54" t="n">
+        <v>9.005133357651808</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.4737320023359082</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>24.77632303310834</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4.931077145294452</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.4522475336002181</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>24.78650759531682</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4.905071163571245</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.4427105054242199</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>24.95077945862258</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3.375613753486709</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.5508491809811433</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>25.03059121881941</v>
+      </c>
+      <c r="C58" t="n">
+        <v>5.327786860211334</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.4563958520713814</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>26.02768966568065</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4.652371404375391</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.7938087874348958</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>27.55561367303405</v>
+      </c>
+      <c r="C60" t="n">
+        <v>8.057505131128664</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.5658280786059866</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>28.06145376364758</v>
+      </c>
+      <c r="C61" t="n">
+        <v>5.948329591778185</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.5953180545244252</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>29.14549001326764</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.641846712712153</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.2322069571857303</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>30.80287511149129</v>
+      </c>
+      <c r="C63" t="n">
+        <v>5.788441102642095</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.4582509278469252</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>31.03218283997933</v>
+      </c>
+      <c r="C64" t="n">
+        <v>7.005794329082514</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.7881651488488781</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>31.32017486703665</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.762377586016397</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.09344453050221943</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>31.80886907218002</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.424925814634019</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.2815052372020643</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>32.2183229927752</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3.294669102003581</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.2230555201836069</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>33.14774772445762</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3.128956512520303</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.3682440437368275</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>33.51055227028385</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3.729157318320206</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.8182728180225547</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>33.62595556988422</v>
+      </c>
+      <c r="C70" t="n">
+        <v>3.780549081360358</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.6914149334426941</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>34.17076893123598</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2.998467562471543</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.3382587360370389</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>34.57941816283864</v>
+      </c>
+      <c r="C72" t="n">
+        <v>5.076965435231243</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.4251251702362746</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>34.77798970195552</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2.299799022950286</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.246504895648921</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>34.8911244919876</v>
+      </c>
+      <c r="C74" t="n">
+        <v>8.597881700880125</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.7573937322863041</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>35.11779502907781</v>
+      </c>
+      <c r="C75" t="n">
+        <v>8.51374343444667</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.4427120817807851</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>36.39321519142108</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.467389807514839</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.3031025277548984</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>36.72939764212263</v>
+      </c>
+      <c r="C77" t="n">
+        <v>3.350419178393701</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.4303407506583696</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>36.8309246790954</v>
+      </c>
+      <c r="C78" t="n">
+        <v>6.122176231534146</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.7536360856001022</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>37.35889830446504</v>
+      </c>
+      <c r="C79" t="n">
+        <v>6.293929767434372</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.2625019904115859</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>37.78221755773296</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.967743261308008</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.247060978707273</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>38.65852799579974</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3.728133608529032</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.2553142056788402</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>38.72174083206065</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2.476866097432959</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.4031356763223977</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>39.26813497302649</v>
+      </c>
+      <c r="C83" t="n">
+        <v>5.886410094611762</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.7348202144862297</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>40.14881389393239</v>
+      </c>
+      <c r="C84" t="n">
+        <v>4.98462663020752</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.489131854735706</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>42.25895804574881</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3.237446589768613</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.2158460670985266</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>42.57642695486466</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3.015932147560779</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.3203088177552066</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>43.1282335269487</v>
+      </c>
+      <c r="C87" t="n">
+        <v>4.729557101925426</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.1414561330219194</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>43.45869232260915</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.729029400757733</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.3490660582591292</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>43.46721447346649</v>
+      </c>
+      <c r="C89" t="n">
+        <v>4.181451257021447</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.3533291362431946</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>43.88507100878137</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3.128873087663446</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.6668107950958796</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>44.7299733454972</v>
+      </c>
+      <c r="C91" t="n">
+        <v>6.382430929537861</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.3098720664233699</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>45.00091526400194</v>
+      </c>
+      <c r="C92" t="n">
+        <v>7.593972804922308</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.5332658362503294</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>45.02657376754722</v>
+      </c>
+      <c r="C93" t="n">
+        <v>5.064036419440425</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.7842176280962619</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>45.14480209408165</v>
+      </c>
+      <c r="C94" t="n">
+        <v>6.046521728679757</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.4640030843507467</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>45.72381359096763</v>
+      </c>
+      <c r="C95" t="n">
+        <v>3.390272806073989</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.356121708003012</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>46.04212863492417</v>
+      </c>
+      <c r="C96" t="n">
+        <v>3.858978900395679</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.4177852752158249</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>47.16313315262487</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2.19826094810395</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.424978993715455</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>47.63264357345246</v>
+      </c>
+      <c r="C98" t="n">
+        <v>7.933955920997993</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.6303885646496038</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>48.15553384616188</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2.621178496188937</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.2010135772219303</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>49.81372117856355</v>
+      </c>
+      <c r="C100" t="n">
+        <v>5.563301122132361</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.6846005666650705</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>50.42554424325753</v>
+      </c>
+      <c r="C101" t="n">
+        <v>3.092427006625039</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.1566375480508208</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>50.45422260617374</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.968021909031742</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.2937258065645225</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>50.56869711174669</v>
+      </c>
+      <c r="C103" t="n">
+        <v>8.018161840599461</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.4618497397654494</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>50.60956402175861</v>
+      </c>
+      <c r="C104" t="n">
+        <v>6.398518095544743</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.5680682000279634</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>52.23519102391932</v>
+      </c>
+      <c r="C105" t="n">
+        <v>3.920312703267589</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.5624943858201698</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>53.67652310500186</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2.082382261553964</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.4348823018136416</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>54.27410394889751</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2.450821360412234</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.4399473824960508</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>54.30503591498896</v>
+      </c>
+      <c r="C108" t="n">
+        <v>7.942963319184927</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.7370110869350681</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>56.17183977060697</v>
+      </c>
+      <c r="C109" t="n">
+        <v>3.079453022329013</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.3123116698637028</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>56.45117790494512</v>
+      </c>
+      <c r="C110" t="n">
+        <v>8.3012204979964</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.6855617033247192</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>57.14619459875377</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2.706292938407854</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.2142827790465361</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>57.66486869225023</v>
+      </c>
+      <c r="C112" t="n">
+        <v>4.14257779649058</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.4159699396928708</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>58.40351448393773</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2.643826774957211</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.2964309363561267</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>58.73047471758247</v>
+      </c>
+      <c r="C114" t="n">
+        <v>5.473612247420389</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.2816433882358671</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>60.1289328779581</v>
+      </c>
+      <c r="C115" t="n">
+        <v>3.268294759411849</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.6167589448688615</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>60.17460310632762</v>
+      </c>
+      <c r="C116" t="n">
+        <v>4.588720184583472</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.5741120283410631</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>60.29118981541351</v>
+      </c>
+      <c r="C117" t="n">
+        <v>4.027208275655997</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.2783240076875566</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>61.22327990743627</v>
+      </c>
+      <c r="C118" t="n">
+        <v>5.369868316772216</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.8280037325669127</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>62.2436534120891</v>
+      </c>
+      <c r="C119" t="n">
+        <v>3.866513121930539</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.6403059906822732</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>62.59527032946419</v>
+      </c>
+      <c r="C120" t="n">
+        <v>3.868333485339596</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.4163627940572082</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>63.13154640011005</v>
+      </c>
+      <c r="C121" t="n">
+        <v>3.987238768574844</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.5376686459055831</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>63.18301398471803</v>
+      </c>
+      <c r="C122" t="n">
+        <v>5.39457323354334</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.3639218929115874</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>65.63953475067369</v>
+      </c>
+      <c r="C123" t="n">
+        <v>3.277019127854897</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.2572248245496604</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>65.8822211412952</v>
+      </c>
+      <c r="C124" t="n">
+        <v>3.033056831330128</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.2857402527843818</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>66.37668498026912</v>
+      </c>
+      <c r="C125" t="n">
+        <v>3.166888596819109</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.4999820892275861</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>67.3475299290962</v>
+      </c>
+      <c r="C126" t="n">
+        <v>4.258858714442509</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.1792172577702715</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>67.97426819401305</v>
+      </c>
+      <c r="C127" t="n">
+        <v>3.400686440801907</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.5774796360799445</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>68.00901844706873</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2.188612080809972</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.2060530080006928</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>68.33111257496802</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4.837488905496453</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.4976080810745172</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>69.83949540363655</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.340435710371414</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.3695509439035322</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>69.88114672818226</v>
+      </c>
+      <c r="C131" t="n">
+        <v>6.414443266459574</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.543385989915818</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>70.99097955896417</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2.274321296823108</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.3309004384767387</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>71.77345631892602</v>
+      </c>
+      <c r="C133" t="n">
+        <v>4.218089887317714</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.4643676739312971</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>72.13833107050908</v>
+      </c>
+      <c r="C134" t="n">
+        <v>6.342577443159691</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.5950277397506469</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>72.55751181758689</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2.341678235871558</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.4064266762592612</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>73.31612242077652</v>
+      </c>
+      <c r="C136" t="n">
+        <v>5.258323627759284</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.5906074937790581</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>73.52691377732498</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.382002636626391</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.20225588537647</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>73.91521551761764</v>
+      </c>
+      <c r="C138" t="n">
+        <v>3.717567066517667</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.5370683043062255</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>74.69536330913338</v>
+      </c>
+      <c r="C139" t="n">
+        <v>5.386325324796508</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.6274899428077324</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>75.22818012650497</v>
+      </c>
+      <c r="C140" t="n">
+        <v>7.103456457402229</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.6168186010405204</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>75.44960509526595</v>
+      </c>
+      <c r="C141" t="n">
+        <v>6.348464487191396</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.6598580596375071</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>75.64657677856557</v>
+      </c>
+      <c r="C142" t="n">
+        <v>5.164979543014935</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.3569486626806659</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>76.34361878664504</v>
+      </c>
+      <c r="C143" t="n">
+        <v>3.433629695189754</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.7336456956558493</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>76.385331159619</v>
+      </c>
+      <c r="C144" t="n">
+        <v>5.27627291787487</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.5702568327283812</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>76.49948336223248</v>
+      </c>
+      <c r="C145" t="n">
+        <v>5.34813637893317</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.3378336298414629</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>77.63343797133798</v>
+      </c>
+      <c r="C146" t="n">
+        <v>5.607999661897329</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.6910839307774915</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>77.85769328523548</v>
+      </c>
+      <c r="C147" t="n">
+        <v>8.351933279973544</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.4107904904216682</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>78.48998945904205</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2.178833427223995</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.5294864696577057</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>78.70565962762846</v>
+      </c>
+      <c r="C149" t="n">
+        <v>4.016955339925057</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.2169826597165736</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>79.33641778649485</v>
+      </c>
+      <c r="C150" t="n">
+        <v>3.978429925100897</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.4315790418395986</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>79.51702777252105</v>
+      </c>
+      <c r="C151" t="n">
+        <v>5.870545889737757</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.6398088913082599</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>79.55754941538905</v>
+      </c>
+      <c r="C152" t="n">
+        <v>5.568970327929628</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.424086129786433</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>80.49461790310497</v>
+      </c>
+      <c r="C153" t="n">
+        <v>3.387548136108052</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.5443570396056838</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>80.63772255549883</v>
+      </c>
+      <c r="C154" t="n">
+        <v>6.455790992589832</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.6052746780918519</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>81.94368988512363</v>
+      </c>
+      <c r="C155" t="n">
+        <v>5.790861510756192</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.5433082309992362</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>84.70701819608254</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2.229483499462166</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.2667566438564218</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>84.73814634056617</v>
+      </c>
+      <c r="C157" t="n">
+        <v>8.419667170680587</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.6471076218162809</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>84.80500083879977</v>
+      </c>
+      <c r="C158" t="n">
+        <v>6.16631070010853</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.4159110443058583</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>85.9056571934382</v>
+      </c>
+      <c r="C159" t="n">
+        <v>6.921832447343749</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.7452575419907373</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>86.30472541893272</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.20465482489718</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.2300597578127887</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>86.38676433421018</v>
+      </c>
+      <c r="C161" t="n">
+        <v>4.931693821795851</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.5200604561476683</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>87.15610046290936</v>
+      </c>
+      <c r="C162" t="n">
+        <v>7.416301250373901</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.4414889222304106</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>89.27757944717639</v>
+      </c>
+      <c r="C163" t="n">
+        <v>9.203653108074411</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.759335278604106</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>89.47256642583</v>
+      </c>
+      <c r="C164" t="n">
+        <v>4.992207340524522</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.5967876992744793</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>89.66609834129831</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2.251698374202267</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.3483715959676556</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>89.88672643959917</v>
+      </c>
+      <c r="C166" t="n">
+        <v>3.087134486750871</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.3825609967034272</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>90.45413179277753</v>
+      </c>
+      <c r="C167" t="n">
+        <v>4.262304065957269</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.5454199704074126</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>90.62151437605827</v>
+      </c>
+      <c r="C168" t="n">
+        <v>5.360140384424307</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.5681409747093729</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>90.85430781047977</v>
+      </c>
+      <c r="C169" t="n">
+        <v>4.649412243701632</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.2571296836310381</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>91.06172640027712</v>
+      </c>
+      <c r="C170" t="n">
+        <v>5.355697724459045</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.5647678935144114</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>91.63376633899364</v>
+      </c>
+      <c r="C171" t="n">
+        <v>3.622398799043803</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.5857010667232864</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>92.13488347027739</v>
+      </c>
+      <c r="C172" t="n">
+        <v>5.491307741702308</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.4843042628582614</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>92.47353312705997</v>
+      </c>
+      <c r="C173" t="n">
+        <v>6.296239949883716</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.6642274110978474</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>92.65250513557343</v>
+      </c>
+      <c r="C174" t="n">
+        <v>5.829495167412931</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.4799761786169128</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>93.70412468648655</v>
+      </c>
+      <c r="C175" t="n">
+        <v>3.6482999652671</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.7257568301975477</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>94.60352166529364</v>
+      </c>
+      <c r="C176" t="n">
+        <v>4.061900130153409</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.3378057859044846</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>94.6515822168685</v>
+      </c>
+      <c r="C177" t="n">
+        <v>9.989639591549091</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.3077358744755859</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>94.97967929608629</v>
+      </c>
+      <c r="C178" t="n">
+        <v>4.40624112645303</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.1674714333649411</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>95.73922368871307</v>
+      </c>
+      <c r="C179" t="n">
+        <v>4.316098120291746</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.4081187987536528</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>96.17048595913671</v>
+      </c>
+      <c r="C180" t="n">
+        <v>4.353514946345841</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.3838050269916819</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>96.60016849468998</v>
+      </c>
+      <c r="C181" t="n">
+        <v>13.61211347876605</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.3654242291728826</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>97.38627434559247</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2.117287931920359</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.2050833118764874</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>99.11135265639085</v>
+      </c>
+      <c r="C183" t="n">
+        <v>3.659855634837505</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.6541532526687651</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>99.60259754177281</v>
+      </c>
+      <c r="C184" t="n">
+        <v>4.068601123222716</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.5810660534105065</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>99.68953659131537</v>
+      </c>
+      <c r="C185" t="n">
+        <v>3.41252117512273</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.5902830318964429</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>99.89548561489343</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2.130052075484032</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.3076071985520862</v>
       </c>
     </row>
   </sheetData>
